--- a/Fix/docs/certification_script.xlsx
+++ b/Fix/docs/certification_script.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="814" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="814" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Swing Trade - Day" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="158">
   <si>
     <t>Item</t>
   </si>
@@ -487,6 +487,27 @@
   </si>
   <si>
     <t>l1</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = Stop) na compra de 100 a com o stop em R$2 e sem a tag price price,  com validade para o dia e TargetStrategy = 1002</t>
+  </si>
+  <si>
+    <t>Receber um ExecutionReport com ExecType = PendingNew, e logo após receber um outro ExecutionReport com o ExecType = New e OrdType = Stop. A tag Price devera informara o preco definido para o Stop.</t>
+  </si>
+  <si>
+    <t>g13</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = Stop) na compra de 100 a com o stop em R$2 e sem a tag price price,  com validade para o dia</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle na compra de um ativo da BMF, com validade para amanha</t>
+  </si>
+  <si>
+    <t>b7</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1209,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,6 +1338,19 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1325,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,6 +1518,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1977,10 +2024,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,6 +2210,19 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fix/docs/certification_script.xlsx
+++ b/Fix/docs/certification_script.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="814" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" tabRatio="814" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Swing Trade - Day" sheetId="3" r:id="rId1"/>
     <sheet name="Swing Trade - GTD" sheetId="2" r:id="rId2"/>
     <sheet name="Swing Trade - Stop" sheetId="4" r:id="rId3"/>
-    <sheet name="SwingTrade - Market" sheetId="9" r:id="rId4"/>
-    <sheet name="DayTrade - Day" sheetId="5" r:id="rId5"/>
-    <sheet name="DayTrade - GTD" sheetId="6" r:id="rId6"/>
-    <sheet name="DayTrade - Stop" sheetId="7" r:id="rId7"/>
-    <sheet name="DayTrade - Market" sheetId="8" r:id="rId8"/>
-    <sheet name="Account Permissions" sheetId="1" r:id="rId9"/>
-    <sheet name="Crosswire" sheetId="10" r:id="rId10"/>
-    <sheet name="HighFrequency" sheetId="11" r:id="rId11"/>
+    <sheet name="Swing Trade - OCO" sheetId="12" r:id="rId4"/>
+    <sheet name="SwingTrade - Market" sheetId="9" r:id="rId5"/>
+    <sheet name="DayTrade - Day" sheetId="5" r:id="rId6"/>
+    <sheet name="DayTrade - GTD" sheetId="6" r:id="rId7"/>
+    <sheet name="DayTrade - OCO" sheetId="13" r:id="rId8"/>
+    <sheet name="DayTrade - Stop" sheetId="7" r:id="rId9"/>
+    <sheet name="DayTrade - Market" sheetId="8" r:id="rId10"/>
+    <sheet name="Account Permissions" sheetId="1" r:id="rId11"/>
+    <sheet name="Crosswire" sheetId="10" r:id="rId12"/>
+    <sheet name="HighFrequency" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="176">
   <si>
     <t>Item</t>
   </si>
@@ -508,6 +510,60 @@
   </si>
   <si>
     <t>b7</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>m4</t>
+  </si>
+  <si>
+    <t>m7</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>m9</t>
+  </si>
+  <si>
+    <t>m10</t>
+  </si>
+  <si>
+    <t>m11</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 100 a R$ 3, stop em R$2 e gain em R$ 1,  com validade para o dia e TargetStrategy = 1001</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 1000 a R$ 3.54 e stop em R$1</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 100 a R$ 3, stop em R$2 e gain em R$ 1,  com validade para amanhã e TargetStrategy = 1001</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 100 a R$ 5, stop em R$4 e gain em R$ 3,  com validade para amanhã e TargetStrategy = 1001</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle na venda de 100 a R$ 3, com validade para o dia, em uma seguda conta</t>
+  </si>
+  <si>
+    <t>Receber 3 ExecutionReport para a ordem de venda (PendingNew, New, Trade - Filled) e um ExecutionReport para a compra (Trade - Filled)</t>
+  </si>
+  <si>
+    <t>Receber 3 ExecutionReport para a ordem de venda (PendingNew, New, Trade - Filled) e um ExecutionReport para a compra (Trade - PartialFilled)</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 100 a R$ 3, stop em R$2 e gain em R$ 1,  com validade para o dia e TargetStrategy = 1002</t>
+  </si>
+  <si>
+    <t>Enviar um NewOrderSingle (OrdType = OCO) na compra de 100 a R$ 5, stop em R$4 e gain em R$ 3,  com validade para o dia e TargetStrategy = 1002</t>
   </si>
 </sst>
 </file>
@@ -1116,1121 +1172,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="92.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="78" style="5" customWidth="1"/>
-    <col min="3" max="3" width="89" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="77.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82.28515625" customWidth="1"/>
-    <col min="3" max="3" width="95" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="68" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="82" customWidth="1"/>
-    <col min="3" max="3" width="94.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2309,7 +1250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E9"/>
   <sheetViews>
@@ -2431,4 +1372,1427 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="85.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78" style="5" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82.28515625" customWidth="1"/>
+    <col min="3" max="3" width="95" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="3" max="3" width="68" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="77.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="82" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>